--- a/biology/Zoologie/Bruant_lapon/Bruant_lapon.xlsx
+++ b/biology/Zoologie/Bruant_lapon/Bruant_lapon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Calcarius lapponicus
 Le Bruant lapon ou Plectrophane lapon (Calcarius lapponicus) est une espèce de passereaux appartenant à la famille des Calcariidae.
@@ -512,14 +524,12 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Calcarius lapponicus a été décrite par le naturaliste suédois Carl von Linné en 1758 sous le nom initial de Fringilla lapponica[1].
-Synonymie
-Fringilla lapponica Linné, 1758 Protonyme
-Noms vernaculaires
-Bruant lapon
-Plectrophane lapon</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Calcarius lapponicus a été décrite par le naturaliste suédois Carl von Linné en 1758 sous le nom initial de Fringilla lapponica.
+</t>
         </is>
       </c>
     </row>
@@ -544,10 +554,85 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fringilla lapponica Linné, 1758 Protonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bruant_lapon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruant_lapon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bruant lapon
+Plectrophane lapon</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bruant_lapon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruant_lapon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cet oiseau possède cinq sous-espèces :
 Calcarius lapponicus lapponicus (Linnaeus) 1758 ;
@@ -558,62 +643,66 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bruant_lapon</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bruant_lapon</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bruant_lapon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruant_lapon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Identification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bruant lapon est un oiseau robuste avec un bec jaune épais. En été, le mâle a une tête et une gorge noires, des lignes blanches au niveau des yeux, une nuque châtain, une poitrine blanche et un dos strié noir et gris. La femelle, tout comme le mâle en hiver, n'a pas de noir sur la tête et la gorge. Il mesure en moyenne 15 centimètres de long et pèse environ 25 grammes. Son envergure est de 25 à 28 centimètres.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bruant_lapon</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bruant_lapon</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bruant_lapon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruant_lapon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bruant lapon niche dans l'extrême-nord de l'Europe et de l'Asie, ainsi qu'au Canada et dans les parties les plus au nord des États-Unis. C'est un oiseau migrateur qui passe l'hiver dans les steppes russes, dans le sud des États-Unis et dans le sud de la Suède, au Danemark et en Grande-Bretagne. C'est la seule espèce eurasiatique du genre Calcarius et, même si elle n'a probablement pas évolué ici, elle est présente dans l'est de l'Europe depuis environ 30 000 ans.
 Il vit dans des zones humides comportant des bouleaux ou des saules, ou sur des montagnes dénudées. Il passe l'hiver sur des terres cultivées ou sur des côtes. Il est souvent vu près de la limite des arbres et se joint à d'autres espèces pour se nourrir en hiver.
@@ -621,68 +710,6 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bruant_lapon</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bruant_lapon</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Reproduction</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles sont les premiers sur le lieu de reproduction afin de délimiter leurs territoires. Dès que la plus grande partie de la neige est fondue, ils commencent à construire le nid. Ce dernier, composé d'herbes, de mousses et de racines, est construit à même le sol et la femelle pond entre deux et quatre œufs d'une teinte verte-brune. Il faut compter entre douze et quatorze jours jusqu'à l'éclosion des œufs.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Bruant_lapon</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bruant_lapon</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Régime alimentaire</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bruant lapon se nourrit principalement de graines d'herbes des champs telles que des plantains ou des renouées qu'il glane dans les friches, les chaumes, les gazons clairsemés et les terrains découverts.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
@@ -704,10 +731,78 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles sont les premiers sur le lieu de reproduction afin de délimiter leurs territoires. Dès que la plus grande partie de la neige est fondue, ils commencent à construire le nid. Ce dernier, composé d'herbes, de mousses et de racines, est construit à même le sol et la femelle pond entre deux et quatre œufs d'une teinte verte-brune. Il faut compter entre douze et quatorze jours jusqu'à l'éclosion des œufs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bruant_lapon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruant_lapon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Régime alimentaire</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bruant lapon se nourrit principalement de graines d'herbes des champs telles que des plantains ou des renouées qu'il glane dans les friches, les chaumes, les gazons clairsemés et les terrains découverts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bruant_lapon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruant_lapon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bruant lapon apparaît sur un timbre canadien de 2001.
 </t>
